--- a/ExcelData/weapon.xlsx
+++ b/ExcelData/weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Excel2XmlBytes\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964219F-3665-4FEE-A7D9-1F99BD3F2C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBBFF6-6EC2-42D2-8EE9-2383A970BD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="4332" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,19 +83,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天你好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可惜的武器不太好用</t>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123#456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">string[] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述#真好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天#你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可惜的#武器#不太好用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀杀杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘻嘻嘻#ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>890#232</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,10 +516,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,10 +550,27 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
-        <v>12</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
